--- a/medicine/Enfance/Maria_Celestina_Fernandes/Maria_Celestina_Fernandes.xlsx
+++ b/medicine/Enfance/Maria_Celestina_Fernandes/Maria_Celestina_Fernandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Celestina Fernandes, née le 12 septembre 1945, est une auteure angolaise pour enfants. Elle a également écrit de la poésie et des nouvelles, et a fait carrière comme travailleuse sociale et avocate.
 </t>
@@ -511,12 +523,14 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Celestina Fernandes est née à Lubango le 12 septembre 1945. Son père est fonctionnaire[1],[2]. Elle fait ses études à l'école secondaire Salvador Correia à (Luanda)[1]. Puis elle suit une formation de travailleur social  dans un institut catholique et une formation en droit à la Faculté de droit de l'université Agostinho Neto.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Celestina Fernandes est née à Lubango le 12 septembre 1945. Son père est fonctionnaire,. Elle fait ses études à l'école secondaire Salvador Correia à (Luanda). Puis elle suit une formation de travailleur social  dans un institut catholique et une formation en droit à la Faculté de droit de l'université Agostinho Neto.
 En 1975, elle commence à travailler à la Banque nationale d'Angola, et y reste pendant plus de deux décennies, passant de chef du département social au poste de directeur adjoint du département juridique. Puis elle prend sa retraite.
-Elle commence à écrire, pendant ces années professionnelels, à la fin des années 1980, notamment dans les Jornal de Angola et le Boletim da Organização da Mulher Angolana]. (OMA)[1]. À partir de 1990, elle publie de nombreux livres[2], notamment en littérature pour enfants[3],[4]. En février 2016, elle participe à un festival littéraire à Lisbonne,  accueillie par l'ancien président du Portugal, Jorge Sampaio[5].
-Elle est membre de l’Union des écrivains angolais et de la Chá de Caxinde Association[5].
+Elle commence à écrire, pendant ces années professionnelels, à la fin des années 1980, notamment dans les Jornal de Angola et le Boletim da Organização da Mulher Angolana]. (OMA). À partir de 1990, elle publie de nombreux livres, notamment en littérature pour enfants,. En février 2016, elle participe à un festival littéraire à Lisbonne,  accueillie par l'ancien président du Portugal, Jorge Sampaio.
+Elle est membre de l’Union des écrivains angolais et de la Chá de Caxinde Association.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A borboleta cor de ouro, UEA, 1990
 Kalimba, INALD, 1992
@@ -590,9 +606,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle a reçu notamment les prix suivants[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle a reçu notamment les prix suivants :
 Prémio Literário Jardim do Livro Infantil, 2010
 Prémio Caxinde do Conto Infantil, 2012
 Prémio Excelência Literária (Troféu Corujão das Letras), 2015</t>
